--- a/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_5_control_kato_katz_202110.xlsx
+++ b/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_5_control_kato_katz_202110.xlsx
@@ -861,10 +861,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -923,16 +923,16 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -945,6 +945,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -953,8 +984,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -968,52 +1029,13 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1029,14 +1051,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -1044,23 +1058,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1131,7 +1131,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1149,7 +1215,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1161,145 +1293,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1374,6 +1374,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1391,8 +1406,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1400,8 +1415,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1421,21 +1436,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1449,22 +1449,22 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1473,124 +1473,124 @@
     <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2051,7 +2051,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5911,7 +5911,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="2"/>

--- a/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_5_control_kato_katz_202110.xlsx
+++ b/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_5_control_kato_katz_202110.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -181,7 +181,7 @@
     <t>Veuillez scanner le QR Code</t>
   </si>
   <si>
-    <t>regex(., '^[A-Z]{3}[0-9]{4}$') and substr(${k_district}, 0, 3) = substr(., 0, 3)</t>
+    <t>(regex(., '^[A-Z]{3}[0-9]{4}$') and substr(${k_district}, 0, 3) = substr(., 0, 3) and ${k_district} != 'KPENDJAL OUEST') or (if(${k_district} = 'KPENDJAL OUEST', if(substr(., 0, 3) = 'OUE', true(), false()), false()) and regex(., '^[A-Z]{3}[0-9]{4}$'))</t>
   </si>
   <si>
     <t>Please scan the QR code for the correct district. The first three letters of the QR code must match the first three letters of the district name. For example, TCH0001 for TCHAOUDJO.</t>
@@ -847,10 +847,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Octobre 2021) - 5. SCH/STH - contrôle de qualité pour Kato Katz v6</t>
-  </si>
-  <si>
-    <t>tg_sch_sth_impact_5_control_kato_katz_202110</t>
+    <t>(Octobre 2021) - 5. SCH/STH - contrôle de qualité pour Kato Katz v6.2</t>
+  </si>
+  <si>
+    <t>tg_sch_sth_impact_5_control_kato_katz_202110_v6_2</t>
   </si>
   <si>
     <t>French</t>
@@ -861,10 +861,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -938,8 +938,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -953,23 +1007,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -984,31 +1031,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1022,7 +1053,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1037,38 +1068,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1125,7 +1125,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1137,7 +1221,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1149,31 +1281,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1185,79 +1293,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1269,43 +1305,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1373,45 +1373,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1436,6 +1397,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1446,145 +1422,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2046,12 +2046,12 @@
   <sheetPr/>
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:E2"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="F8" s="36"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="8" t="s">
         <v>37</v>
       </c>
       <c r="I8" s="25" t="s">
@@ -5910,8 +5910,8 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="2"/>
